--- a/output/StructureDefinition-lab-activity.xlsx
+++ b/output/StructureDefinition-lab-activity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T15:37:55+02:00</t>
+    <t>2022-10-26T12:16:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Act[classCode=ACT; moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>clinical.general</t>
   </si>
   <si>
     <t>Test</t>
@@ -335,7 +338,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>IETF language tag</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -393,6 +396,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -433,7 +440,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -449,8 +456,8 @@
   </si>
   <si>
     <t>Can be a urn:uuid: or a urn:oid: but real http: addresses are preferred.  Multiple instances may share the same URL if they have a distinct version.
-The determination of when to create a new version of a resource (same url, new version) vs. defining a new artifact is up to the author.  Considerations for making this decision are found in [Technical and Business Versions](http://hl7.org/fhir/R4/resource.html#versions). 
-In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](http://hl7.org/fhir/R4/resource.html#meta) element to indicate where the current master source of the resource can be found.</t>
+The determination of when to create a new version of a resource (same url, new version) vs. defining a new artifact is up to the author.  Considerations for making this decision are found in [Technical and Business Versions](http://hl7.org/fhir/2021Mar/resource.html#versions). 
+In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](http://hl7.org/fhir/2021Mar/resource.html#meta) element to indicate where the current master source of the resource can be found.</t>
   </si>
   <si>
     <t>Allows the activity definition to be referenced by a single globally unique identifier.</t>
@@ -533,7 +540,7 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-0
+    <t xml:space="preserve">cnl-0
 </t>
   </si>
   <si>
@@ -582,7 +589,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>Definition.status {different ValueSet}</t>
@@ -620,13 +627,16 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Group)</t>
+Reference(Group)canonical</t>
   </si>
   <si>
     <t>Type of individual the activity definition is intended for</t>
   </si>
   <si>
-    <t>A code or group definition that describes the intended subject of the activity being defined.</t>
+    <t>A code, group definition, or canonical reference that describes  or identifies the intended subject of the activity being defined.  Canonical references are allowed to support the definition of protocols for drug and substance quality specifications, and is allowed to reference a MedicinalProductDefinition, SubstanceDefinition, AdministrableProductDefinition, ManufacturedItemDefinition, or PackagedProductDefinition resource.</t>
+  </si>
+  <si>
+    <t>Note that the choice of canonical for the subject element was introduced in R4B to support pharmaceutical quality use cases. To ensure as much backwards-compatibility as possible, it is recommended to only use the new canonical type with these use cases.</t>
   </si>
   <si>
     <t>Patient</t>
@@ -642,6 +652,9 @@
   </si>
   <si>
     <t>Definition.subject</t>
+  </si>
+  <si>
+    <t>N/A (to add?) { only applies for subject Patient? }</t>
   </si>
   <si>
     <t>ActivityDefinition.date</t>
@@ -944,6 +957,9 @@
     <t>An individual or organization primarily responsible for internal coherence of the content.</t>
   </si>
   <si>
+    <t>.participation[typeCode=AUT] { not a great match, but there does not appear to be an editor concept in V3 participation }</t>
+  </si>
+  <si>
     <t>ActivityDefinition.reviewer</t>
   </si>
   <si>
@@ -1021,7 +1037,7 @@
     <t>The kind of activity the definition is describing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-resource-types|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/request-resource-types|4.3.0</t>
   </si>
   <si>
     <t>.classCode</t>
@@ -1043,6 +1059,9 @@
     <t>Allows profiles to be used to describe the types of activities that can be performed within a workflow, protocol, or order set.</t>
   </si>
   <si>
+    <t>.templateId</t>
+  </si>
+  <si>
     <t>ActivityDefinition.code</t>
   </si>
   <si>
@@ -1267,7 +1286,10 @@
     <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.3.0</t>
+  </si>
+  <si>
+    <t>.moodCode { of the realized Activity }</t>
   </si>
   <si>
     <t>ActivityDefinition.priority</t>
@@ -1282,7 +1304,10 @@
     <t>Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.3.0</t>
+  </si>
+  <si>
+    <t>.priority { of the realized activity }</t>
   </si>
   <si>
     <t>ActivityDefinition.doNotPerform</t>
@@ -1295,6 +1320,9 @@
   </si>
   <si>
     <t>This element is not intended to be used to communicate a decision support response to cancel an order in progress. That should be done with the "remove" type of a PlanDefinition or RequestGroup.</t>
+  </si>
+  <si>
+    <t>.negationInd { of the realized activity }</t>
   </si>
   <si>
     <t>ActivityDefinition.timing[x]</t>
@@ -1355,6 +1383,10 @@
     <t>Indicates who should participate in performing the action described.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
+  </si>
+  <si>
     <t>.participation[typeCode=PFM]</t>
   </si>
   <si>
@@ -1393,7 +1425,7 @@
     <t>The type of participant in the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.3.0</t>
   </si>
   <si>
     <t>.role.classCode</t>
@@ -1411,7 +1443,7 @@
     <t>Defines roles played by participants for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role</t>
+    <t>http://terminology.hl7.org/ValueSet/action-participant-role</t>
   </si>
   <si>
     <t>.role.code</t>
@@ -1420,7 +1452,7 @@
     <t>ActivityDefinition.product[x]</t>
   </si>
   <si>
-    <t>Reference(Medication|Substance)
+    <t>Reference(Medication|Substance|Ingredient)
 CodeableConcept</t>
   </si>
   <si>
@@ -1591,10 +1623,10 @@
     <t>The path to the element to be set dynamically</t>
   </si>
   <si>
-    <t>The path to the element to be customized. This is the path on the resource that will hold the result of the calculation defined by the expression. The specified path SHALL be a FHIRPath resolveable on the specified target type of the ActivityDefinition, and SHALL consist only of identifiers, constant indexers, and a restricted subset of functions. The path is allowed to contain qualifiers (.) to traverse sub-elements, as well as indexers ([x]) to traverse multiple-cardinality sub-elements (see the [Simple FHIRPath Profile](http://hl7.org/fhir/R4/fhirpath.html#simple) for full details).</t>
-  </si>
-  <si>
-    <t>The path attribute contains a [Simple FHIRPath Subset](http://hl7.org/fhir/R4/fhirpath.html#simple) that allows path traversal, but not calculation.</t>
+    <t>The path to the element to be customized. This is the path on the resource that will hold the result of the calculation defined by the expression. The specified path SHALL be a FHIRPath resolveable on the specified target type of the ActivityDefinition, and SHALL consist only of identifiers, constant indexers, and a restricted subset of functions. The path is allowed to contain qualifiers (.) to traverse sub-elements, as well as indexers ([x]) to traverse multiple-cardinality sub-elements (see the [Simple FHIRPath Profile](http://hl7.org/fhir/2021Mar/fhirpath.html#simple) for full details).</t>
+  </si>
+  <si>
+    <t>The path attribute contains a [Simple FHIRPath Subset](http://hl7.org/fhir/2021Mar/fhirpath.html#simple) that allows path traversal, but not calculation.</t>
   </si>
   <si>
     <t>ActivityDefinition.dynamicValue.expression</t>
@@ -1930,7 +1962,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="90.05859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -2173,18 +2205,18 @@
         <v>77</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2195,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -2204,19 +2236,19 @@
         <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2266,13 +2298,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2298,7 +2330,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2309,7 +2341,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -2318,16 +2350,16 @@
         <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2378,19 +2410,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2410,7 +2442,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2421,28 +2453,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2492,19 +2524,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2524,7 +2556,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2535,7 +2567,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2547,16 +2579,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2582,13 +2614,13 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>72</v>
@@ -2606,19 +2638,19 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2638,18 +2670,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2661,16 +2693,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2720,25 +2752,25 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
@@ -2752,11 +2784,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2775,16 +2807,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2834,7 +2866,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2846,13 +2878,13 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -2866,11 +2898,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2889,16 +2921,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2948,7 +2980,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2960,13 +2992,13 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
@@ -2980,11 +3012,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2997,25 +3029,25 @@
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -3064,7 +3096,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -3076,13 +3108,13 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
@@ -3096,7 +3128,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3107,7 +3139,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -3116,22 +3148,22 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>72</v>
@@ -3180,28 +3212,28 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>72</v>
@@ -3212,7 +3244,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3232,22 +3264,22 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -3296,7 +3328,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -3308,19 +3340,19 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>72</v>
@@ -3328,7 +3360,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3339,7 +3371,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -3348,19 +3380,19 @@
         <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3410,28 +3442,28 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>72</v>
@@ -3442,7 +3474,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3453,7 +3485,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -3462,22 +3494,22 @@
         <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>72</v>
@@ -3526,25 +3558,25 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -3558,7 +3590,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3569,7 +3601,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -3578,19 +3610,19 @@
         <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3640,25 +3672,25 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3672,7 +3704,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3683,7 +3715,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -3695,13 +3727,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3752,25 +3784,25 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -3784,7 +3816,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3792,31 +3824,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3842,13 +3874,13 @@
         <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>72</v>
@@ -3866,28 +3898,28 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>72</v>
@@ -3898,7 +3930,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3909,7 +3941,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -3918,22 +3950,22 @@
         <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>72</v>
@@ -3982,28 +4014,28 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>72</v>
@@ -4014,7 +4046,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4025,7 +4057,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -4037,21 +4069,23 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>72</v>
@@ -4072,13 +4106,13 @@
         <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>72</v>
@@ -4096,25 +4130,25 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -4128,18 +4162,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -4148,19 +4182,19 @@
         <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4210,28 +4244,28 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>72</v>
@@ -4242,7 +4276,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4253,7 +4287,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -4262,22 +4296,22 @@
         <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>72</v>
@@ -4326,28 +4360,28 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>72</v>
@@ -4358,7 +4392,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4378,19 +4412,19 @@
         <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4440,7 +4474,7 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -4452,13 +4486,13 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>72</v>
@@ -4472,7 +4506,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4483,7 +4517,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -4492,19 +4526,19 @@
         <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4554,25 +4588,25 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4586,7 +4620,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4606,22 +4640,22 @@
         <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -4670,7 +4704,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4682,13 +4716,13 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -4702,7 +4736,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4722,19 +4756,19 @@
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4760,13 +4794,13 @@
         <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>72</v>
@@ -4784,7 +4818,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4796,13 +4830,13 @@
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -4816,7 +4850,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4827,7 +4861,7 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -4839,16 +4873,16 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4898,31 +4932,31 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>72</v>
@@ -4930,7 +4964,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4941,7 +4975,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -4953,13 +4987,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5010,25 +5044,25 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -5042,18 +5076,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -5065,17 +5099,17 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>72</v>
@@ -5124,31 +5158,31 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>72</v>
@@ -5156,7 +5190,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5167,7 +5201,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -5179,16 +5213,16 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5238,31 +5272,31 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>72</v>
@@ -5270,7 +5304,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5281,7 +5315,7 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -5293,19 +5327,19 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -5354,31 +5388,31 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>72</v>
@@ -5386,7 +5420,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5397,7 +5431,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -5406,22 +5440,22 @@
         <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
@@ -5470,31 +5504,31 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>72</v>
@@ -5502,7 +5536,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5525,17 +5559,17 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5560,31 +5594,31 @@
         <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -5596,13 +5630,13 @@
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5616,7 +5650,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5639,13 +5673,13 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5696,7 +5730,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5708,13 +5742,13 @@
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5728,7 +5762,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5751,13 +5785,13 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5808,7 +5842,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5820,13 +5854,13 @@
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5840,7 +5874,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5863,13 +5897,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5920,7 +5954,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5932,13 +5966,13 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -5952,7 +5986,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5975,13 +6009,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6032,7 +6066,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -6044,13 +6078,13 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -6064,7 +6098,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6087,19 +6121,19 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>72</v>
@@ -6148,7 +6182,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -6160,13 +6194,13 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -6180,7 +6214,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6203,13 +6237,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6260,7 +6294,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -6272,13 +6306,13 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6292,7 +6326,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6303,7 +6337,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -6312,19 +6346,19 @@
         <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6335,7 +6369,7 @@
         <v>72</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>72</v>
@@ -6350,49 +6384,49 @@
         <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6406,7 +6440,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6417,7 +6451,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -6429,17 +6463,17 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -6488,25 +6522,25 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6520,7 +6554,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6531,7 +6565,7 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>72</v>
@@ -6540,22 +6574,22 @@
         <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -6580,49 +6614,49 @@
         <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6636,7 +6670,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6647,7 +6681,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -6659,13 +6693,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6716,13 +6750,13 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
@@ -6734,7 +6768,7 @@
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6748,11 +6782,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6771,16 +6805,16 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6818,19 +6852,19 @@
         <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -6842,13 +6876,13 @@
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6862,7 +6896,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6882,22 +6916,22 @@
         <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>72</v>
@@ -6946,7 +6980,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6958,13 +6992,13 @@
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6978,7 +7012,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6989,7 +7023,7 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -7001,13 +7035,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7058,13 +7092,13 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
@@ -7076,7 +7110,7 @@
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -7090,11 +7124,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7113,16 +7147,16 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7160,19 +7194,19 @@
         <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -7184,13 +7218,13 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -7204,7 +7238,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7215,7 +7249,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -7224,22 +7258,22 @@
         <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>72</v>
@@ -7288,25 +7322,25 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7320,7 +7354,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7331,7 +7365,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -7340,19 +7374,19 @@
         <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7402,25 +7436,25 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7434,7 +7468,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7445,7 +7479,7 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>72</v>
@@ -7454,20 +7488,20 @@
         <v>72</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>72</v>
@@ -7516,25 +7550,25 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7543,12 +7577,12 @@
         <v>72</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7559,7 +7593,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -7568,20 +7602,20 @@
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7630,25 +7664,25 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7657,12 +7691,12 @@
         <v>72</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7673,7 +7707,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7682,22 +7716,22 @@
         <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>72</v>
@@ -7746,25 +7780,25 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7778,7 +7812,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7789,7 +7823,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -7798,22 +7832,22 @@
         <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -7862,25 +7896,25 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7894,7 +7928,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7905,7 +7939,7 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -7917,13 +7951,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7950,13 +7984,13 @@
         <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>72</v>
@@ -7974,25 +8008,25 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -8006,7 +8040,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8017,7 +8051,7 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -8029,13 +8063,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8062,13 +8096,13 @@
         <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>72</v>
@@ -8086,25 +8120,25 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>72</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -8118,7 +8152,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8129,28 +8163,28 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8200,25 +8234,25 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>72</v>
+        <v>424</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8232,7 +8266,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8243,7 +8277,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -8255,17 +8289,17 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>72</v>
@@ -8314,25 +8348,25 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -8346,18 +8380,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -8369,19 +8403,19 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -8430,25 +8464,25 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8462,7 +8496,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8485,13 +8519,13 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8542,7 +8576,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -8554,13 +8588,13 @@
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>443</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8574,7 +8608,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8585,7 +8619,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -8597,13 +8631,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8654,13 +8688,13 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
@@ -8672,7 +8706,7 @@
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8686,11 +8720,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8709,16 +8743,16 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8768,7 +8802,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -8780,13 +8814,13 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8800,11 +8834,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8817,25 +8851,25 @@
         <v>72</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>72</v>
@@ -8884,7 +8918,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -8896,13 +8930,13 @@
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8916,7 +8950,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8924,10 +8958,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>72</v>
@@ -8939,13 +8973,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8972,13 +9006,13 @@
         <v>72</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>72</v>
@@ -8996,25 +9030,25 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9028,7 +9062,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9039,7 +9073,7 @@
         <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>72</v>
@@ -9051,13 +9085,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9084,13 +9118,13 @@
         <v>72</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>72</v>
@@ -9108,25 +9142,25 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9140,7 +9174,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9151,7 +9185,7 @@
         <v>73</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>72</v>
@@ -9163,13 +9197,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9196,13 +9230,13 @@
         <v>72</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>72</v>
@@ -9220,25 +9254,25 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9252,18 +9286,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>72</v>
@@ -9275,13 +9309,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9332,25 +9366,25 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9364,7 +9398,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9387,16 +9421,16 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9446,7 +9480,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -9458,13 +9492,13 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9478,7 +9512,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9501,19 +9535,19 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>72</v>
@@ -9538,13 +9572,13 @@
         <v>72</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>72</v>
@@ -9562,7 +9596,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -9574,13 +9608,13 @@
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9594,7 +9628,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9617,17 +9651,17 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>72</v>
@@ -9676,7 +9710,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -9688,13 +9722,13 @@
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9708,7 +9742,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9731,17 +9765,17 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>72</v>
@@ -9790,7 +9824,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -9802,13 +9836,13 @@
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9822,7 +9856,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9845,13 +9879,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9863,7 +9897,7 @@
         <v>72</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>72</v>
@@ -9902,7 +9936,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -9914,13 +9948,13 @@
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9934,7 +9968,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9945,7 +9979,7 @@
         <v>73</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>72</v>
@@ -9957,16 +9991,16 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10016,25 +10050,25 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10048,7 +10082,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10071,16 +10105,16 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10130,7 +10164,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -10142,13 +10176,13 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>92</v>
+        <v>443</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -10162,7 +10196,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10173,7 +10207,7 @@
         <v>73</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>72</v>
@@ -10185,13 +10219,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10242,13 +10276,13 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
@@ -10260,7 +10294,7 @@
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -10274,11 +10308,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10297,16 +10331,16 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10356,7 +10390,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -10368,13 +10402,13 @@
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10388,11 +10422,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10405,25 +10439,25 @@
         <v>72</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>72</v>
@@ -10472,7 +10506,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -10484,13 +10518,13 @@
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10504,7 +10538,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10512,10 +10546,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -10527,16 +10561,16 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10586,25 +10620,25 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10618,7 +10652,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10626,10 +10660,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -10641,16 +10675,16 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10700,25 +10734,25 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
